--- a/biology/Zoologie/Japonica_lutea/Japonica_lutea.xlsx
+++ b/biology/Zoologie/Japonica_lutea/Japonica_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Japonica lutea est un insecte lépidoptère de la famille des Lycaenidae de la sous-famille des Theclinae et du genre Japonica.
 </t>
@@ -511,49 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Japonica lutea a été nommé par William Chapman Hewitson en 1865.
-Synonymes : Dipsas lutea Hewitson, 1865 ; Shirozua lutea[1].
-Noms vernaculaires
-Sous-espèces
-Japonica lutea lutea au Japon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonica lutea a été nommé par William Chapman Hewitson en 1865.
+Synonymes : Dipsas lutea Hewitson, 1865 ; Shirozua lutea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Japonica lutea lutea au Japon.
 Japonica lutea adusta (Riley, 1939)
 Japonica lutea dubatolovi Fujioka, 1993 ;
 Japonica lutea gansuensis Murayama, 1991 ;
 Japonica lutea patungkoanui Murayama, 1956 ; à Taïwan.
-Japonica lutea tatsienluica (Riley, 1939)[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Japonica_lutea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Japonica_lutea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit papillon jaune aux apex des antérieures bordés de foncé et orné d'un point au niveau de la queue présente à chaque aile postérieure.
-</t>
+Japonica lutea tatsienluica (Riley, 1939).</t>
         </is>
       </c>
     </row>
@@ -578,13 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Ses plantes hôtes sont des chênes (Quercus) : Quercus serrata, Quercus acutissima, Quercus dentata, Quercus mongolica, Quercus aliena et Quercus variabilis[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon jaune aux apex des antérieures bordés de foncé et orné d'un point au niveau de la queue présente à chaque aile postérieure.
 </t>
         </is>
       </c>
@@ -610,14 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son aire de répartition est limitée à l'est de l'Asie et comprend le nord-est de la Chine, la Corée, le Japon et Taïwan[1].
-Biotope
-C'est un lépidoptère des bois de chênes.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des chênes (Quercus) : Quercus serrata, Quercus acutissima, Quercus dentata, Quercus mongolica, Quercus aliena et Quercus variabilis.
 </t>
         </is>
       </c>
@@ -643,10 +665,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition est limitée à l'est de l'Asie et comprend le nord-est de la Chine, la Corée, le Japon et Taïwan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lépidoptère des bois de chênes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Japonica_lutea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1986 (valeur faciale : 2 k).
 </t>
